--- a/plots/data_type_XAI_by_patient.xlsx
+++ b/plots/data_type_XAI_by_patient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BCC71C-417F-4C15-9E00-29E0781138F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E89E37-4E45-4F31-B3ED-8A19D8A8CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29CED533-3E2F-4404-BE9E-D16C181E035C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{29CED533-3E2F-4404-BE9E-D16C181E035C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Does patients understand the XAI method?</a:t>
+              <a:t>Do patients understand the XAI method?</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1546,12 +1546,12 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1581,25 +1581,25 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
